--- a/TestFiles/sample1/model.xlsx
+++ b/TestFiles/sample1/model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="32">
   <si>
     <t>First_Key</t>
   </si>
@@ -442,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C536"/>
+  <dimension ref="A1:C650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6344,6 +6344,1260 @@
         <v>0.399831000000006</v>
       </c>
     </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>3</v>
+      </c>
+      <c r="B537" t="s">
+        <v>5</v>
+      </c>
+      <c r="C537">
+        <v>0.2253845000000001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>5</v>
+      </c>
+      <c r="B538" t="s">
+        <v>10</v>
+      </c>
+      <c r="C538">
+        <v>0.2236720999999999</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>10</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539">
+        <v>0.2308193000000001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>9</v>
+      </c>
+      <c r="B540" t="s">
+        <v>7</v>
+      </c>
+      <c r="C540">
+        <v>0.4801015999999998</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>7</v>
+      </c>
+      <c r="B541" t="s">
+        <v>17</v>
+      </c>
+      <c r="C541">
+        <v>1.0720348</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>17</v>
+      </c>
+      <c r="B542" t="s">
+        <v>15</v>
+      </c>
+      <c r="C542">
+        <v>0.2317567999999999</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>15</v>
+      </c>
+      <c r="B543" t="s">
+        <v>18</v>
+      </c>
+      <c r="C543">
+        <v>0.2000938000000003</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>18</v>
+      </c>
+      <c r="B544" t="s">
+        <v>13</v>
+      </c>
+      <c r="C544">
+        <v>0.2886964999999995</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>13</v>
+      </c>
+      <c r="B545" t="s">
+        <v>7</v>
+      </c>
+      <c r="C545">
+        <v>0.3116437999999997</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>7</v>
+      </c>
+      <c r="B546" t="s">
+        <v>19</v>
+      </c>
+      <c r="C546">
+        <v>1.0476184</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>19</v>
+      </c>
+      <c r="B547" t="s">
+        <v>15</v>
+      </c>
+      <c r="C547">
+        <v>0.2397045000000002</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>15</v>
+      </c>
+      <c r="B548" t="s">
+        <v>23</v>
+      </c>
+      <c r="C548">
+        <v>0.2888688999999998</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>23</v>
+      </c>
+      <c r="B549" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549">
+        <v>0.1608717000000004</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>9</v>
+      </c>
+      <c r="B550" t="s">
+        <v>7</v>
+      </c>
+      <c r="C550">
+        <v>0.3185298999999997</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>7</v>
+      </c>
+      <c r="B551" t="s">
+        <v>19</v>
+      </c>
+      <c r="C551">
+        <v>1.1304581</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>19</v>
+      </c>
+      <c r="B552" t="s">
+        <v>5</v>
+      </c>
+      <c r="C552">
+        <v>0.2310083999999994</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>5</v>
+      </c>
+      <c r="B553" t="s">
+        <v>16</v>
+      </c>
+      <c r="C553">
+        <v>0.3104987000000001</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>16</v>
+      </c>
+      <c r="B554" t="s">
+        <v>9</v>
+      </c>
+      <c r="C554">
+        <v>0.1679551000000004</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>9</v>
+      </c>
+      <c r="B555" t="s">
+        <v>7</v>
+      </c>
+      <c r="C555">
+        <v>0.3282196000000006</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>7</v>
+      </c>
+      <c r="B556" t="s">
+        <v>19</v>
+      </c>
+      <c r="C556">
+        <v>1.199677899999999</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>19</v>
+      </c>
+      <c r="B557" t="s">
+        <v>5</v>
+      </c>
+      <c r="C557">
+        <v>0.2478929999999995</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>5</v>
+      </c>
+      <c r="B558" t="s">
+        <v>13</v>
+      </c>
+      <c r="C558">
+        <v>0.2244503000000009</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>13</v>
+      </c>
+      <c r="B559" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559">
+        <v>0.2574562</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>9</v>
+      </c>
+      <c r="B560" t="s">
+        <v>7</v>
+      </c>
+      <c r="C560">
+        <v>0.3183937999999991</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" t="s">
+        <v>7</v>
+      </c>
+      <c r="B561" t="s">
+        <v>12</v>
+      </c>
+      <c r="C561">
+        <v>1.127836400000001</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" t="s">
+        <v>12</v>
+      </c>
+      <c r="B562" t="s">
+        <v>5</v>
+      </c>
+      <c r="C562">
+        <v>0.2156821999999998</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>5</v>
+      </c>
+      <c r="B563" t="s">
+        <v>14</v>
+      </c>
+      <c r="C563">
+        <v>0.2564343999999998</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" t="s">
+        <v>14</v>
+      </c>
+      <c r="B564" t="s">
+        <v>4</v>
+      </c>
+      <c r="C564">
+        <v>0.1679085999999987</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" t="s">
+        <v>4</v>
+      </c>
+      <c r="B565" t="s">
+        <v>3</v>
+      </c>
+      <c r="C565">
+        <v>0.2158985000000015</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" t="s">
+        <v>3</v>
+      </c>
+      <c r="B566" t="s">
+        <v>7</v>
+      </c>
+      <c r="C566">
+        <v>0.4400058999999992</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" t="s">
+        <v>7</v>
+      </c>
+      <c r="B567" t="s">
+        <v>17</v>
+      </c>
+      <c r="C567">
+        <v>0.9837518999999997</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" t="s">
+        <v>17</v>
+      </c>
+      <c r="B568" t="s">
+        <v>15</v>
+      </c>
+      <c r="C568">
+        <v>0.2563503000000011</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" t="s">
+        <v>15</v>
+      </c>
+      <c r="B569" t="s">
+        <v>18</v>
+      </c>
+      <c r="C569">
+        <v>0.1920571999999989</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" t="s">
+        <v>18</v>
+      </c>
+      <c r="B570" t="s">
+        <v>19</v>
+      </c>
+      <c r="C570">
+        <v>0.3037963999999995</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" t="s">
+        <v>19</v>
+      </c>
+      <c r="B571" t="s">
+        <v>20</v>
+      </c>
+      <c r="C571">
+        <v>0.1924293000000006</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" t="s">
+        <v>20</v>
+      </c>
+      <c r="B572" t="s">
+        <v>7</v>
+      </c>
+      <c r="C572">
+        <v>0.2792832000000001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" t="s">
+        <v>7</v>
+      </c>
+      <c r="B573" t="s">
+        <v>3</v>
+      </c>
+      <c r="C573">
+        <v>1.144464900000001</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" t="s">
+        <v>3</v>
+      </c>
+      <c r="B574" t="s">
+        <v>5</v>
+      </c>
+      <c r="C574">
+        <v>0.2162702999999979</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" t="s">
+        <v>5</v>
+      </c>
+      <c r="B575" t="s">
+        <v>10</v>
+      </c>
+      <c r="C575">
+        <v>0.2314673999999997</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>10</v>
+      </c>
+      <c r="B576" t="s">
+        <v>9</v>
+      </c>
+      <c r="C576">
+        <v>0.2003004000000033</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>9</v>
+      </c>
+      <c r="B577" t="s">
+        <v>7</v>
+      </c>
+      <c r="C577">
+        <v>0.2715655999999989</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>7</v>
+      </c>
+      <c r="B578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C578">
+        <v>1.153132199999998</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" t="s">
+        <v>3</v>
+      </c>
+      <c r="B579" t="s">
+        <v>8</v>
+      </c>
+      <c r="C579">
+        <v>0.1668212000000011</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>8</v>
+      </c>
+      <c r="B580" t="s">
+        <v>21</v>
+      </c>
+      <c r="C580">
+        <v>0.2080944000000002</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>21</v>
+      </c>
+      <c r="B581" t="s">
+        <v>19</v>
+      </c>
+      <c r="C581">
+        <v>0.2884604000000017</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>19</v>
+      </c>
+      <c r="B582" t="s">
+        <v>9</v>
+      </c>
+      <c r="C582">
+        <v>0.2091289999999972</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>9</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583">
+        <v>0.2543003000000006</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>7</v>
+      </c>
+      <c r="B584" t="s">
+        <v>4</v>
+      </c>
+      <c r="C584">
+        <v>1.1455819</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>4</v>
+      </c>
+      <c r="B585" t="s">
+        <v>15</v>
+      </c>
+      <c r="C585">
+        <v>0.2312413000000006</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>15</v>
+      </c>
+      <c r="B586" t="s">
+        <v>22</v>
+      </c>
+      <c r="C586">
+        <v>0.1681682000000002</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>22</v>
+      </c>
+      <c r="B587" t="s">
+        <v>6</v>
+      </c>
+      <c r="C587">
+        <v>0.2560241000000012</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" t="s">
+        <v>6</v>
+      </c>
+      <c r="B588" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588">
+        <v>0.2237706999999993</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" t="s">
+        <v>9</v>
+      </c>
+      <c r="B589" t="s">
+        <v>7</v>
+      </c>
+      <c r="C589">
+        <v>0.327834799999998</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" t="s">
+        <v>7</v>
+      </c>
+      <c r="B590" t="s">
+        <v>21</v>
+      </c>
+      <c r="C590">
+        <v>1.023905200000002</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" t="s">
+        <v>21</v>
+      </c>
+      <c r="B591" t="s">
+        <v>8</v>
+      </c>
+      <c r="C591">
+        <v>0.239491000000001</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" t="s">
+        <v>8</v>
+      </c>
+      <c r="B592" t="s">
+        <v>6</v>
+      </c>
+      <c r="C592">
+        <v>0.2562640999999992</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" t="s">
+        <v>6</v>
+      </c>
+      <c r="B593" t="s">
+        <v>9</v>
+      </c>
+      <c r="C593">
+        <v>0.2405138999999998</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" t="s">
+        <v>9</v>
+      </c>
+      <c r="B594" t="s">
+        <v>20</v>
+      </c>
+      <c r="C594">
+        <v>0.2473588999999983</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" t="s">
+        <v>20</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+      <c r="C595">
+        <v>0.3443101000000013</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" t="s">
+        <v>7</v>
+      </c>
+      <c r="B596" t="s">
+        <v>3</v>
+      </c>
+      <c r="C596">
+        <v>1.145432800000002</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" t="s">
+        <v>3</v>
+      </c>
+      <c r="B597" t="s">
+        <v>5</v>
+      </c>
+      <c r="C597">
+        <v>0.2143966999999982</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>5</v>
+      </c>
+      <c r="B598" t="s">
+        <v>10</v>
+      </c>
+      <c r="C598">
+        <v>0.2077808999999995</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>10</v>
+      </c>
+      <c r="B599" t="s">
+        <v>9</v>
+      </c>
+      <c r="C599">
+        <v>0.2723601000000002</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>9</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+      <c r="C600">
+        <v>0.2640083000000004</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" t="s">
+        <v>7</v>
+      </c>
+      <c r="B601" t="s">
+        <v>24</v>
+      </c>
+      <c r="C601">
+        <v>1.1359371</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" t="s">
+        <v>24</v>
+      </c>
+      <c r="B602" t="s">
+        <v>9</v>
+      </c>
+      <c r="C602">
+        <v>0.2078328999999997</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" t="s">
+        <v>9</v>
+      </c>
+      <c r="B603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C603">
+        <v>0.200193800000001</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>15</v>
+      </c>
+      <c r="B604" t="s">
+        <v>24</v>
+      </c>
+      <c r="C604">
+        <v>0.2399895000000001</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" t="s">
+        <v>24</v>
+      </c>
+      <c r="B605" t="s">
+        <v>19</v>
+      </c>
+      <c r="C605">
+        <v>0.2322141000000002</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" t="s">
+        <v>19</v>
+      </c>
+      <c r="B606" t="s">
+        <v>9</v>
+      </c>
+      <c r="C606">
+        <v>0.2488284999999983</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" t="s">
+        <v>9</v>
+      </c>
+      <c r="B607" t="s">
+        <v>7</v>
+      </c>
+      <c r="C607">
+        <v>0.2711655999999998</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" t="s">
+        <v>7</v>
+      </c>
+      <c r="B608" t="s">
+        <v>20</v>
+      </c>
+      <c r="C608">
+        <v>1.120041500000003</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" t="s">
+        <v>20</v>
+      </c>
+      <c r="B609" t="s">
+        <v>15</v>
+      </c>
+      <c r="C609">
+        <v>0.2320148999999994</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" t="s">
+        <v>15</v>
+      </c>
+      <c r="B610" t="s">
+        <v>25</v>
+      </c>
+      <c r="C610">
+        <v>0.1845217999999988</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" t="s">
+        <v>25</v>
+      </c>
+      <c r="B611" t="s">
+        <v>3</v>
+      </c>
+      <c r="C611">
+        <v>0.3047477000000001</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" t="s">
+        <v>3</v>
+      </c>
+      <c r="B612" t="s">
+        <v>15</v>
+      </c>
+      <c r="C612">
+        <v>0.223002300000001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" t="s">
+        <v>15</v>
+      </c>
+      <c r="B613" t="s">
+        <v>18</v>
+      </c>
+      <c r="C613">
+        <v>0.2632836000000012</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" t="s">
+        <v>18</v>
+      </c>
+      <c r="B614" t="s">
+        <v>7</v>
+      </c>
+      <c r="C614">
+        <v>0.2724069</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" t="s">
+        <v>7</v>
+      </c>
+      <c r="B615" t="s">
+        <v>19</v>
+      </c>
+      <c r="C615">
+        <v>1.352246899999997</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" t="s">
+        <v>19</v>
+      </c>
+      <c r="B616" t="s">
+        <v>15</v>
+      </c>
+      <c r="C616">
+        <v>0.2393524000000014</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" t="s">
+        <v>15</v>
+      </c>
+      <c r="B617" t="s">
+        <v>23</v>
+      </c>
+      <c r="C617">
+        <v>0.2800784000000007</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" t="s">
+        <v>23</v>
+      </c>
+      <c r="B618" t="s">
+        <v>9</v>
+      </c>
+      <c r="C618">
+        <v>0.175848699999996</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" t="s">
+        <v>9</v>
+      </c>
+      <c r="B619" t="s">
+        <v>7</v>
+      </c>
+      <c r="C619">
+        <v>0.3041461000000041</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" t="s">
+        <v>7</v>
+      </c>
+      <c r="B620" t="s">
+        <v>10</v>
+      </c>
+      <c r="C620">
+        <v>1.048237</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" t="s">
+        <v>10</v>
+      </c>
+      <c r="B621" t="s">
+        <v>8</v>
+      </c>
+      <c r="C621">
+        <v>0.2399519000000012</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" t="s">
+        <v>8</v>
+      </c>
+      <c r="B622" t="s">
+        <v>18</v>
+      </c>
+      <c r="C622">
+        <v>0.209385999999995</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" t="s">
+        <v>18</v>
+      </c>
+      <c r="B623" t="s">
+        <v>13</v>
+      </c>
+      <c r="C623">
+        <v>0.462375999999999</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" t="s">
+        <v>13</v>
+      </c>
+      <c r="B624" t="s">
+        <v>9</v>
+      </c>
+      <c r="C624">
+        <v>0.1848897000000065</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" t="s">
+        <v>9</v>
+      </c>
+      <c r="B625" t="s">
+        <v>3</v>
+      </c>
+      <c r="C625">
+        <v>0.3351753999999971</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" t="s">
+        <v>3</v>
+      </c>
+      <c r="B626" t="s">
+        <v>7</v>
+      </c>
+      <c r="C626">
+        <v>0.2402098000000024</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" t="s">
+        <v>7</v>
+      </c>
+      <c r="B627" t="s">
+        <v>19</v>
+      </c>
+      <c r="C627">
+        <v>1.097923099999996</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" t="s">
+        <v>19</v>
+      </c>
+      <c r="B628" t="s">
+        <v>15</v>
+      </c>
+      <c r="C628">
+        <v>0.2063090999999986</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" t="s">
+        <v>15</v>
+      </c>
+      <c r="B629" t="s">
+        <v>23</v>
+      </c>
+      <c r="C629">
+        <v>0.2796041000000002</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" t="s">
+        <v>23</v>
+      </c>
+      <c r="B630" t="s">
+        <v>9</v>
+      </c>
+      <c r="C630">
+        <v>0.1604534000000015</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" t="s">
+        <v>9</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+      <c r="C631">
+        <v>0.3118199000000033</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" t="s">
+        <v>7</v>
+      </c>
+      <c r="B632" t="s">
+        <v>17</v>
+      </c>
+      <c r="C632">
+        <v>0.8958343999999983</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" t="s">
+        <v>17</v>
+      </c>
+      <c r="B633" t="s">
+        <v>5</v>
+      </c>
+      <c r="C633">
+        <v>0.2714122000000003</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" t="s">
+        <v>5</v>
+      </c>
+      <c r="B634" t="s">
+        <v>12</v>
+      </c>
+      <c r="C634">
+        <v>0.2084343000000004</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" t="s">
+        <v>12</v>
+      </c>
+      <c r="B635" t="s">
+        <v>3</v>
+      </c>
+      <c r="C635">
+        <v>0.5205904999999973</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" t="s">
+        <v>3</v>
+      </c>
+      <c r="B636" t="s">
+        <v>9</v>
+      </c>
+      <c r="C636">
+        <v>0.1517420999999999</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" t="s">
+        <v>9</v>
+      </c>
+      <c r="B637" t="s">
+        <v>18</v>
+      </c>
+      <c r="C637">
+        <v>0.1997454999999988</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" t="s">
+        <v>18</v>
+      </c>
+      <c r="B638" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638">
+        <v>0.4161277000000041</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" t="s">
+        <v>7</v>
+      </c>
+      <c r="B639" t="s">
+        <v>3</v>
+      </c>
+      <c r="C639">
+        <v>1.255630799999999</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" t="s">
+        <v>3</v>
+      </c>
+      <c r="B640" t="s">
+        <v>5</v>
+      </c>
+      <c r="C640">
+        <v>0.2161115000000038</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" t="s">
+        <v>5</v>
+      </c>
+      <c r="B641" t="s">
+        <v>10</v>
+      </c>
+      <c r="C641">
+        <v>0.2160531999999975</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" t="s">
+        <v>10</v>
+      </c>
+      <c r="B642" t="s">
+        <v>9</v>
+      </c>
+      <c r="C642">
+        <v>0.2322884000000016</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" t="s">
+        <v>9</v>
+      </c>
+      <c r="B643" t="s">
+        <v>7</v>
+      </c>
+      <c r="C643">
+        <v>0.2555422999999948</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" t="s">
+        <v>7</v>
+      </c>
+      <c r="B644" t="s">
+        <v>10</v>
+      </c>
+      <c r="C644">
+        <v>1.024455200000006</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" t="s">
+        <v>10</v>
+      </c>
+      <c r="B645" t="s">
+        <v>9</v>
+      </c>
+      <c r="C645">
+        <v>0.1915310999999988</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" t="s">
+        <v>9</v>
+      </c>
+      <c r="B646" t="s">
+        <v>10</v>
+      </c>
+      <c r="C646">
+        <v>0.1843915999999979</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" t="s">
+        <v>10</v>
+      </c>
+      <c r="B647" t="s">
+        <v>21</v>
+      </c>
+      <c r="C647">
+        <v>0.3518891000000011</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" t="s">
+        <v>21</v>
+      </c>
+      <c r="B648" t="s">
+        <v>9</v>
+      </c>
+      <c r="C648">
+        <v>0.2410584</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" t="s">
+        <v>9</v>
+      </c>
+      <c r="B649" t="s">
+        <v>18</v>
+      </c>
+      <c r="C649">
+        <v>0.2712937000000011</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" t="s">
+        <v>18</v>
+      </c>
+      <c r="B650" t="s">
+        <v>7</v>
+      </c>
+      <c r="C650">
+        <v>0.3356673999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6351,7 +7605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6382,7 +7636,7 @@
         <v>0.2685606899999993</v>
       </c>
       <c r="D2">
-        <v>0.04401820735040137</v>
+        <v>0.04401820735040138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6424,7 +7678,7 @@
         <v>0.244402546666667</v>
       </c>
       <c r="D5">
-        <v>0.06853049227695976</v>
+        <v>0.06853049227695977</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6477,10 +7731,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.7195793719999983</v>
+        <v>0.7823498275862055</v>
       </c>
       <c r="D9">
-        <v>0.3607468856780774</v>
+        <v>0.3702930879066179</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6491,10 +7745,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.2238746000000003</v>
+        <v>0.1998304333333335</v>
       </c>
       <c r="D10">
-        <v>0.01582209999999942</v>
+        <v>0.03637494284525485</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6508,7 +7762,7 @@
         <v>0.2840240500000046</v>
       </c>
       <c r="D11">
-        <v>0.03605714999999599</v>
+        <v>0.03605714999999601</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6533,10 +7787,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>0.5555358875000012</v>
+        <v>0.512450280000001</v>
       </c>
       <c r="D13">
-        <v>0.5160877923864267</v>
+        <v>0.4716976679331508</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6547,10 +7801,10 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>1.320269999999999</v>
+        <v>1.130987400000002</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.1341946856868264</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6631,10 +7885,10 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>0.1743669833333327</v>
+        <v>0.1893942999999998</v>
       </c>
       <c r="D20">
-        <v>0.01882831755307999</v>
+        <v>0.03210889266401704</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6645,10 +7899,10 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>0.2730749866666675</v>
+        <v>0.2832827952380957</v>
       </c>
       <c r="D21">
-        <v>0.1625934543921875</v>
+        <v>0.1418379938277836</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6662,7 +7916,7 @@
         <v>0.235408650000001</v>
       </c>
       <c r="D22">
-        <v>0.05863964564396242</v>
+        <v>0.0586396456439624</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6701,10 +7955,10 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>0.3065998500000009</v>
+        <v>0.2956925666666675</v>
       </c>
       <c r="D25">
-        <v>0.1092682774378852</v>
+        <v>0.1075392472920785</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6785,10 +8039,10 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>0.7868853666666666</v>
+        <v>0.8853795333333331</v>
       </c>
       <c r="D31">
-        <v>0.4711245471180933</v>
+        <v>0.3510947010491596</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6799,10 +8053,10 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <v>0.2242461999999996</v>
+        <v>0.2374511000000002</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.01371099555271918</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6813,10 +8067,10 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>0.2111802166666686</v>
+        <v>0.2136128777777791</v>
       </c>
       <c r="D33">
-        <v>0.02857288463260106</v>
+        <v>0.02990458681346187</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6827,10 +8081,10 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>0.4078028000000025</v>
+        <v>0.355799600000001</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.0520032000000015</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6841,10 +8095,10 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>0.3367830999999981</v>
+        <v>0.2646061999999993</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.07217689999999877</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6855,10 +8109,10 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>0.2996084375000008</v>
+        <v>0.3020460800000008</v>
       </c>
       <c r="D36">
-        <v>0.1580645716275441</v>
+        <v>0.1422066114252461</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6897,10 +8151,10 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.2644766076923072</v>
+        <v>0.2535505235294114</v>
       </c>
       <c r="D39">
-        <v>0.06949506150547627</v>
+        <v>0.06391819214565475</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6911,10 +8165,10 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>0.2565873083333343</v>
+        <v>0.2473763312500005</v>
       </c>
       <c r="D40">
-        <v>0.03305087209276458</v>
+        <v>0.03306277016800112</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6925,10 +8179,10 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <v>0.2622513000000015</v>
+        <v>0.2524390500000013</v>
       </c>
       <c r="D41">
-        <v>0.06638721481675937</v>
+        <v>0.05995237667125818</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6942,7 +8196,7 @@
         <v>0.1305824666666654</v>
       </c>
       <c r="D42">
-        <v>0.0101907894023134</v>
+        <v>0.01019078940231343</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6953,10 +8207,10 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>0.2105606000000056</v>
+        <v>0.1996257500000045</v>
       </c>
       <c r="D43">
-        <v>0.02007296464916705</v>
+        <v>0.02570808755863817</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6995,10 +8249,10 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>0.2111251599999989</v>
+        <v>0.2278782666666657</v>
       </c>
       <c r="D46">
-        <v>0.0389158029623213</v>
+        <v>0.05162718290873609</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7009,10 +8263,10 @@
         <v>21</v>
       </c>
       <c r="C47">
-        <v>0.2504294750000025</v>
+        <v>0.241962460000002</v>
       </c>
       <c r="D47">
-        <v>0.05777632518503147</v>
+        <v>0.05438055142741871</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7037,10 +8291,10 @@
         <v>22</v>
       </c>
       <c r="C49">
-        <v>0.2034891375000001</v>
+        <v>0.199564588888889</v>
       </c>
       <c r="D49">
-        <v>0.0335946505897842</v>
+        <v>0.03356213851560786</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7054,7 +8308,7 @@
         <v>0.2472238666666655</v>
       </c>
       <c r="D50">
-        <v>0.04791066849296145</v>
+        <v>0.04791066849296142</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7121,10 +8375,10 @@
         <v>19</v>
       </c>
       <c r="C55">
-        <v>0.2588650999999977</v>
+        <v>0.2687301999999991</v>
       </c>
       <c r="D55">
-        <v>0.004430199999998052</v>
+        <v>0.01441266262862999</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7135,10 +8389,10 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>0.1577473999999981</v>
+        <v>0.186239939999998</v>
       </c>
       <c r="D56">
-        <v>0.03089308447792247</v>
+        <v>0.04413583447311754</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7163,10 +8417,10 @@
         <v>19</v>
       </c>
       <c r="C58">
-        <v>1.5723372</v>
+        <v>1.346363688888888</v>
       </c>
       <c r="D58">
-        <v>0.8002808693721364</v>
+        <v>0.5759236080145795</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7177,10 +8431,10 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <v>0.3422815200000002</v>
+        <v>0.2995967000000002</v>
       </c>
       <c r="D59">
-        <v>0.2101858033213285</v>
+        <v>0.1753280341596906</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7191,10 +8445,10 @@
         <v>23</v>
       </c>
       <c r="C60">
-        <v>0.3374597249999987</v>
+        <v>0.3140557571428565</v>
       </c>
       <c r="D60">
-        <v>0.05569776682051044</v>
+        <v>0.05010803045426259</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7205,10 +8459,10 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>0.3311244333333298</v>
+        <v>0.275991155555553</v>
       </c>
       <c r="D61">
-        <v>0.3688241615773191</v>
+        <v>0.311101201165816</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7222,7 +8476,7 @@
         <v>0.2530247333333324</v>
       </c>
       <c r="D62">
-        <v>0.06870726941454397</v>
+        <v>0.06870726941454398</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7250,7 +8504,7 @@
         <v>0.2498588000000019</v>
       </c>
       <c r="D64">
-        <v>0.02657399479839373</v>
+        <v>0.02657399479839374</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7264,7 +8518,7 @@
         <v>0.2174736250000002</v>
       </c>
       <c r="D65">
-        <v>0.02888545073790548</v>
+        <v>0.02888545073790549</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7289,10 +8543,10 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>0.3003861000000008</v>
+        <v>0.3737875666666663</v>
       </c>
       <c r="D67">
-        <v>0.004203600000000279</v>
+        <v>0.1038620757845481</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7317,10 +8571,10 @@
         <v>18</v>
       </c>
       <c r="C69">
-        <v>0.2665282000000033</v>
+        <v>0.2522426500000012</v>
       </c>
       <c r="D69">
-        <v>0.05281113511529784</v>
+        <v>0.05199993087045753</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7334,7 +8588,7 @@
         <v>0.1972648833333312</v>
       </c>
       <c r="D70">
-        <v>0.02950609968121953</v>
+        <v>0.02950609968121954</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -7348,7 +8602,7 @@
         <v>0.266427500000006</v>
       </c>
       <c r="D71">
-        <v>0.04617937362444995</v>
+        <v>0.04617937362444994</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -7359,10 +8613,10 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>1.531362650000003</v>
+        <v>1.454206500000003</v>
       </c>
       <c r="D72">
-        <v>1.445003309376433</v>
+        <v>1.301629723545973</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7376,7 +8630,7 @@
         <v>0.1969114666666675</v>
       </c>
       <c r="D73">
-        <v>0.03842432470040975</v>
+        <v>0.03842432470040974</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7401,10 +8655,10 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>0.7184577000000019</v>
+        <v>0.9231470500000016</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.2046893499999998</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7415,10 +8669,10 @@
         <v>5</v>
       </c>
       <c r="C76">
-        <v>0.2440573000000014</v>
+        <v>0.2345989333333342</v>
       </c>
       <c r="D76">
-        <v>0.01176550000000273</v>
+        <v>0.01646833507580387</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7443,10 +8697,10 @@
         <v>25</v>
       </c>
       <c r="C78">
-        <v>0.1357821499999971</v>
+        <v>0.1357821499999972</v>
       </c>
       <c r="D78">
-        <v>0.001657750000006758</v>
+        <v>0.001657750000006744</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7502,7 +8756,7 @@
         <v>0.3006859666666684</v>
       </c>
       <c r="D82">
-        <v>0.04417887982843883</v>
+        <v>0.04417887982843879</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7513,10 +8767,10 @@
         <v>15</v>
       </c>
       <c r="C83">
-        <v>0.2652758999999982</v>
+        <v>0.2567672499999988</v>
       </c>
       <c r="D83">
-        <v>0.04445620795712128</v>
+        <v>0.04122447323996488</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7544,7 +8798,7 @@
         <v>0.2558116999999991</v>
       </c>
       <c r="D85">
-        <v>0.007357599999998632</v>
+        <v>0.007357599999998604</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7600,7 +8854,7 @@
         <v>0.271660199999999</v>
       </c>
       <c r="D89">
-        <v>0.01637360000000099</v>
+        <v>0.01637360000000102</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7642,7 +8896,7 @@
         <v>0.2208336799999989</v>
       </c>
       <c r="D92">
-        <v>0.07077097570189082</v>
+        <v>0.0707709757018908</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7709,10 +8963,10 @@
         <v>21</v>
       </c>
       <c r="C97">
-        <v>1.044977600000001</v>
+        <v>1.039709500000001</v>
       </c>
       <c r="D97">
-        <v>0.1439468052986467</v>
+        <v>0.1249950827016604</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7726,7 +8980,7 @@
         <v>0.2836850999999996</v>
       </c>
       <c r="D98">
-        <v>0.01167110000000093</v>
+        <v>0.01167110000000096</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7737,10 +8991,10 @@
         <v>24</v>
       </c>
       <c r="C99">
-        <v>0.7500775200000014</v>
+        <v>0.8143874500000011</v>
       </c>
       <c r="D99">
-        <v>0.3209973299973989</v>
+        <v>0.3264121735437782</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7754,7 +9008,7 @@
         <v>0.3521012666666661</v>
       </c>
       <c r="D100">
-        <v>0.06918152171523384</v>
+        <v>0.06918152171523381</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7779,10 +9033,10 @@
         <v>14</v>
       </c>
       <c r="C102">
-        <v>0.2471490000000003</v>
+        <v>0.2517917000000001</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>0.004642699999999764</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7824,7 +9078,7 @@
         <v>0.2793280499999988</v>
       </c>
       <c r="D105">
-        <v>0.03004309433409692</v>
+        <v>0.03004309433409688</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -7880,7 +9134,7 @@
         <v>0.2281406499999985</v>
       </c>
       <c r="D109">
-        <v>0.004202250000000518</v>
+        <v>0.00420225000000049</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7894,7 +9148,7 @@
         <v>0.2432095499999996</v>
       </c>
       <c r="D110">
-        <v>0.004497849999999914</v>
+        <v>0.004497849999999942</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7933,10 +9187,10 @@
         <v>18</v>
       </c>
       <c r="C113">
-        <v>0.2480345499999999</v>
+        <v>0.2417770749999999</v>
       </c>
       <c r="D113">
-        <v>0.01579385000000144</v>
+        <v>0.02835087225628055</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -7947,10 +9201,10 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>0.24403635</v>
+        <v>0.2764911222222225</v>
       </c>
       <c r="D114">
-        <v>0.03427118136587076</v>
+        <v>0.06358183113082257</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8034,7 +9288,7 @@
         <v>0.1819773999999992</v>
       </c>
       <c r="D120">
-        <v>0.0009984999999996802</v>
+        <v>0.0009984999999996941</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8073,10 +9327,10 @@
         <v>17</v>
       </c>
       <c r="C123">
-        <v>0.2106666000000015</v>
+        <v>0.2106666000000014</v>
       </c>
       <c r="D123">
-        <v>0.01290949999999746</v>
+        <v>0.01290949999999745</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8090,7 +9344,7 @@
         <v>0.2592133000000008</v>
       </c>
       <c r="D124">
-        <v>0.01134639999999898</v>
+        <v>0.01134639999999894</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -8118,7 +9372,7 @@
         <v>0.2926539499999983</v>
       </c>
       <c r="D126">
-        <v>0.0433449500000016</v>
+        <v>0.04334495000000159</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8174,7 +9428,7 @@
         <v>0.2639416833333321</v>
       </c>
       <c r="D130">
-        <v>0.03276930238782254</v>
+        <v>0.03276930238782252</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -8188,7 +9442,7 @@
         <v>0.1281013000000044</v>
       </c>
       <c r="D131">
-        <v>0.007615699999995229</v>
+        <v>0.007615699999995194</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8213,10 +9467,10 @@
         <v>15</v>
       </c>
       <c r="C133">
-        <v>0.3364910999999964</v>
+        <v>0.2842529999999979</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>0.05223809999999851</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8241,10 +9495,10 @@
         <v>24</v>
       </c>
       <c r="C135">
-        <v>0.4623972000000016</v>
+        <v>0.3882613000000011</v>
       </c>
       <c r="D135">
-        <v>0.2306922999999976</v>
+        <v>0.2155726208430609</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8255,10 +9509,10 @@
         <v>9</v>
       </c>
       <c r="C136">
-        <v>0.1682215000000014</v>
+        <v>0.1880272000000005</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>0.01980569999999912</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8283,10 +9537,10 @@
         <v>10</v>
       </c>
       <c r="C138">
-        <v>0.2638604999999998</v>
+        <v>0.2241260499999988</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>0.03973445000000095</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8297,10 +9551,10 @@
         <v>8</v>
       </c>
       <c r="C139">
-        <v>0.2077095</v>
+        <v>0.2238307000000006</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>0.01612120000000061</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8342,7 +9596,7 @@
         <v>0.3125605</v>
       </c>
       <c r="D142">
-        <v>0.1123115000000006</v>
+        <v>0.1123115000000005</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8356,7 +9610,7 @@
         <v>0.2352086999999976</v>
       </c>
       <c r="D143">
-        <v>0.004619899999998012</v>
+        <v>0.004619899999997998</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8384,7 +9638,7 @@
         <v>0.198685949999998</v>
       </c>
       <c r="D145">
-        <v>0.04181524999999908</v>
+        <v>0.04181524999999911</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8409,10 +9663,10 @@
         <v>19</v>
       </c>
       <c r="C147">
-        <v>0.8038061499999998</v>
+        <v>0.80380615</v>
       </c>
       <c r="D147">
-        <v>0.6202573500000028</v>
+        <v>0.620257350000003</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8437,10 +9691,10 @@
         <v>20</v>
       </c>
       <c r="C149">
-        <v>0.2730166500000024</v>
+        <v>0.2644640666666677</v>
       </c>
       <c r="D149">
-        <v>0.01470894999999928</v>
+        <v>0.01704490647521782</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8496,7 +9750,7 @@
         <v>0.1753088500000004</v>
       </c>
       <c r="D153">
-        <v>0.03146674999999988</v>
+        <v>0.0314667499999999</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8647,10 +9901,10 @@
         <v>9</v>
       </c>
       <c r="C164">
-        <v>0.2603949999999955</v>
+        <v>0.2462686499999975</v>
       </c>
       <c r="D164">
-        <v>0.01156990000000491</v>
+        <v>0.0173645299564227</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8675,10 +9929,10 @@
         <v>19</v>
       </c>
       <c r="C166">
-        <v>0.2480099499999966</v>
+        <v>0.2427446666666645</v>
       </c>
       <c r="D166">
-        <v>0.01567434999999762</v>
+        <v>0.01480663980929322</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8801,10 +10055,10 @@
         <v>8</v>
       </c>
       <c r="C175">
-        <v>0.8198723999999942</v>
+        <v>0.8198723999999941</v>
       </c>
       <c r="D175">
-        <v>0.508096100000003</v>
+        <v>0.5080961000000029</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -8815,10 +10069,10 @@
         <v>6</v>
       </c>
       <c r="C176">
-        <v>0.200176500000012</v>
+        <v>0.2282203000000056</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>0.02804379999999361</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -8860,7 +10114,7 @@
         <v>0.2081906499999988</v>
       </c>
       <c r="D179">
-        <v>0.01562944999999871</v>
+        <v>0.0156294499999987</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -8902,6 +10156,258 @@
         <v>0.399831000000006</v>
       </c>
       <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <v>0.3755362499999992</v>
+      </c>
+      <c r="D183">
+        <v>0.08683974999999977</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0.2394506999999995</v>
+      </c>
+      <c r="D184">
+        <v>0.008442300000000014</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185">
+        <v>0.3104987000000001</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186">
+        <v>0.1679551000000004</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>0.2244503000000009</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>0.2211729500000033</v>
+      </c>
+      <c r="D188">
+        <v>0.03628324999999677</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>0.1679085999999987</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>0.2158985000000015</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>0.2560241000000012</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192">
+        <v>0.239491000000001</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193">
+        <v>0.200193800000001</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194">
+        <v>1.120041500000003</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195">
+        <v>0.1845217999999988</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>25</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>0.3047477000000001</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>0.3351753999999971</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>0.2714122000000003</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199">
+        <v>0.3518891000000011</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200">
+        <v>0.2410584</v>
+      </c>
+      <c r="D200">
         <v>0</v>
       </c>
     </row>
